--- a/innovation moderate/produccion-energetica/m222805.xlsx
+++ b/innovation moderate/produccion-energetica/m222805.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/uo294557_uniovi_es/Documents/Hackathon/hackathon/innovation moderate/produccion-energetica/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_A95060F47C825D5FC3BFC114DF2528E350C37EBF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0CD9672-9038-4689-B110-9A6E373E1BBE}"/>
+  <bookViews>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="EnergiaContador_M222805.csv" sheetId="1" r:id="rId4"/>
+    <sheet name="EnergiaContador_M222805.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -16,9 +25,6 @@
     <t>Timestamp</t>
   </si>
   <si>
-    <t>EnergiaContador</t>
-  </si>
-  <si>
     <t>30 abr 2024 00:00:00 CEST</t>
   </si>
   <si>
@@ -3200,20 +3206,24 @@
   </si>
   <si>
     <t>3428644,5</t>
+  </si>
+  <si>
+    <t>EnergiaCaldera(MW-hr)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -3224,36 +3234,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -3443,4292 +3460,4297 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B534"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="1" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="1" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="1" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="1" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="1" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="1" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="1" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="1" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="1" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="1" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="1" t="s">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="1" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="1" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="1" t="s">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="1" t="s">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="1" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="1" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="1" t="s">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="1" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="1" t="s">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="1" t="s">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="1" t="s">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="1" t="s">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="1" t="s">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="1" t="s">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="1" t="s">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="1" t="s">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="1" t="s">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="1" t="s">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="1" t="s">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="1" t="s">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B48" s="1" t="s">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="1" t="s">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="1" t="s">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="1" t="s">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="1" t="s">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="1" t="s">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="1" t="s">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B55" s="1" t="s">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="s">
+      <c r="B56" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B56" s="1" t="s">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="1" t="s">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B58" s="1" t="s">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B59" s="1" t="s">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B60" s="1" t="s">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="s">
+      <c r="B61" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="1" t="s">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B62" s="1" t="s">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B63" s="1" t="s">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="s">
+      <c r="B64" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B64" s="1" t="s">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="s">
+      <c r="B65" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B65" s="1" t="s">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="s">
+      <c r="B66" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B66" s="1" t="s">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="s">
+      <c r="B67" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B67" s="1" t="s">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B68" s="1" t="s">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="s">
+      <c r="B69" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B69" s="1" t="s">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="s">
+      <c r="B70" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B70" s="1" t="s">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B71" s="1" t="s">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B72" s="1" t="s">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="s">
+      <c r="B73" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B73" s="1" t="s">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="s">
+      <c r="B74" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B74" s="1" t="s">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="s">
+      <c r="B75" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B75" s="1" t="s">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="s">
+      <c r="B76" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B76" s="1" t="s">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="s">
+      <c r="B77" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B77" s="1" t="s">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B78" s="1" t="s">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="s">
+      <c r="B79" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B79" s="1" t="s">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="s">
+      <c r="B80" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B80" s="1" t="s">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B81" s="1" t="s">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="s">
+      <c r="B82" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="1" t="s">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="s">
+      <c r="B83" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B83" s="1" t="s">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B84" s="1" t="s">
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B85" s="1" t="s">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="s">
+      <c r="B86" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B86" s="1" t="s">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B87" s="1" t="s">
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B88" s="1" t="s">
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B89" s="1" t="s">
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="s">
+      <c r="B90" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B90" s="1" t="s">
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B91" s="1" t="s">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="s">
+      <c r="B92" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B92" s="1" t="s">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B93" s="1" t="s">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B94" s="1" t="s">
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B95" s="1" t="s">
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="s">
+      <c r="B96" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B96" s="1" t="s">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="s">
+      <c r="B97" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B97" s="1" t="s">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B98" s="1" t="s">
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="s">
+      <c r="B99" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B99" s="1" t="s">
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="s">
+      <c r="B100" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B100" s="1" t="s">
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B101" s="1" t="s">
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="s">
+      <c r="B102" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B102" s="1" t="s">
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="s">
+      <c r="B103" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B103" s="1" t="s">
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="s">
+      <c r="B104" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B104" s="1" t="s">
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="s">
+      <c r="B105" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B105" s="1" t="s">
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="s">
+      <c r="B106" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B106" s="1" t="s">
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B107" s="1" t="s">
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B108" s="1" t="s">
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="s">
+      <c r="B109" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B109" s="1" t="s">
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="s">
+      <c r="B110" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B110" s="1" t="s">
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="s">
+      <c r="B111" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B111" s="1" t="s">
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="s">
+      <c r="B112" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B112" s="1" t="s">
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="s">
+      <c r="B113" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B113" s="1" t="s">
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="s">
+      <c r="B114" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B114" s="1" t="s">
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="s">
+      <c r="B115" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B115" s="1" t="s">
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="s">
+      <c r="B116" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B116" s="1" t="s">
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="s">
+      <c r="B117" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B117" s="1" t="s">
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="1" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B118" s="1" t="s">
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="s">
+      <c r="B119" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B119" s="1" t="s">
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="s">
+      <c r="B120" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B120" s="1" t="s">
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" s="1" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="s">
+      <c r="B121" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B121" s="1" t="s">
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="s">
+      <c r="B122" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B122" s="1" t="s">
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="s">
+      <c r="B123" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B123" s="1" t="s">
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" s="1" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B124" s="1" t="s">
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="s">
+      <c r="B125" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B125" s="1" t="s">
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="s">
+      <c r="B126" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B126" s="1" t="s">
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="s">
+      <c r="B127" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B127" s="1" t="s">
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="s">
+      <c r="B128" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B128" s="1" t="s">
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" s="1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="s">
+      <c r="B129" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B129" s="1" t="s">
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="s">
+      <c r="B130" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B130" s="1" t="s">
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" s="1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="s">
+      <c r="B131" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B131" s="1" t="s">
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" s="1" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="s">
+      <c r="B132" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B132" s="1" t="s">
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" s="1" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="s">
+      <c r="B133" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B133" s="1" t="s">
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="s">
+      <c r="B134" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B134" s="1" t="s">
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="1" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="s">
+      <c r="B135" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B135" s="1" t="s">
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" s="1" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="s">
+      <c r="B136" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B136" s="1" t="s">
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="s">
+      <c r="B137" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B137" s="1" t="s">
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="s">
+      <c r="B138" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B138" s="1" t="s">
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" s="1" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="s">
+      <c r="B139" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B139" s="1" t="s">
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" s="1" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="s">
+      <c r="B140" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B140" s="1" t="s">
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" s="1" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="s">
+      <c r="B141" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B141" s="1" t="s">
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" s="1" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="s">
+      <c r="B142" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B142" s="1" t="s">
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" s="1" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="s">
+      <c r="B143" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B143" s="1" t="s">
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" s="1" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="s">
+      <c r="B144" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B144" s="1" t="s">
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="s">
+      <c r="B145" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B145" s="1" t="s">
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" s="1" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="s">
+      <c r="B146" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B146" s="1" t="s">
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" s="1" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="s">
+      <c r="B147" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B147" s="1" t="s">
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" s="1" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="s">
+      <c r="B148" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B148" s="1" t="s">
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="s">
+      <c r="B149" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B149" s="1" t="s">
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="s">
+      <c r="B150" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B150" s="1" t="s">
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" s="1" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="s">
+      <c r="B151" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B151" s="1" t="s">
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="s">
+      <c r="B152" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B152" s="1" t="s">
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="s">
+      <c r="B153" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B153" s="1" t="s">
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" s="1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="s">
+      <c r="B154" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B154" s="1" t="s">
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" s="1" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="s">
+      <c r="B155" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B155" s="1" t="s">
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" s="1" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="s">
+      <c r="B156" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="B156" s="1" t="s">
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" s="1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="s">
+      <c r="B157" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B157" s="1" t="s">
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" s="1" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="s">
+      <c r="B158" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B158" s="1" t="s">
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" s="1" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="s">
+      <c r="B159" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B159" s="1" t="s">
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="s">
+      <c r="B160" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B160" s="1" t="s">
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" s="1" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="s">
+      <c r="B161" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B161" s="1" t="s">
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" s="1" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="s">
+      <c r="B162" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B162" s="1" t="s">
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" s="1" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="s">
+      <c r="B163" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B163" s="1" t="s">
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" s="1" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="s">
+      <c r="B164" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B164" s="1" t="s">
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" s="1" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="s">
+      <c r="B165" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B165" s="1" t="s">
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" s="1" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="s">
+      <c r="B166" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B166" s="1" t="s">
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="s">
+      <c r="B167" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B167" s="1" t="s">
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="s">
+      <c r="B168" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B168" s="1" t="s">
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" s="1" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="s">
+      <c r="B169" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B169" s="1" t="s">
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" s="1" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="s">
+      <c r="B170" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B170" s="1" t="s">
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" s="1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="s">
+      <c r="B171" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B171" s="1" t="s">
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" s="1" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="s">
+      <c r="B172" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B172" s="1" t="s">
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" s="1" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="s">
+      <c r="B173" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B173" s="1" t="s">
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" s="1" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="s">
+      <c r="B174" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B174" s="1" t="s">
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" s="1" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="s">
+      <c r="B175" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B175" s="1" t="s">
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="s">
+      <c r="B176" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="B176" s="1" t="s">
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" s="1" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="s">
+      <c r="B177" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B177" s="1" t="s">
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" s="1" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="s">
+      <c r="B178" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B178" s="1" t="s">
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="s">
+      <c r="B179" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B179" s="1" t="s">
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" s="1" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="s">
+      <c r="B180" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B180" s="1" t="s">
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" s="1" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="s">
+      <c r="B181" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B181" s="1" t="s">
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" s="1" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="s">
+      <c r="B182" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B182" s="1" t="s">
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" s="1" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="s">
+      <c r="B183" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B183" s="1" t="s">
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" s="1" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="s">
+      <c r="B184" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B184" s="1" t="s">
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" s="1" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="s">
+      <c r="B185" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B185" s="1" t="s">
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" s="1" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="s">
+      <c r="B186" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B186" s="1" t="s">
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" s="1" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="s">
+      <c r="B187" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="B187" s="1" t="s">
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" s="1" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="s">
+      <c r="B188" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B188" s="1" t="s">
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" s="1" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="s">
+      <c r="B189" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="B189" s="1" t="s">
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" s="1" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="s">
+      <c r="B190" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B190" s="1" t="s">
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" s="1" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="s">
+      <c r="B191" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B191" s="1" t="s">
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" s="1" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="s">
+      <c r="B192" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B192" s="1" t="s">
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" s="1" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="s">
+      <c r="B193" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B193" s="1" t="s">
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" s="1" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="s">
+      <c r="B194" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B194" s="1" t="s">
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" s="1" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="s">
+      <c r="B195" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B195" s="1" t="s">
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" s="1" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="s">
+      <c r="B196" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B196" s="1" t="s">
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" s="1" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="s">
+      <c r="B197" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B197" s="1" t="s">
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" s="1" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="s">
+      <c r="B198" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="B198" s="1" t="s">
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" s="1" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="s">
+      <c r="B199" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B199" s="1" t="s">
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" s="1" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="s">
+      <c r="B200" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B200" s="1" t="s">
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" s="1" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="s">
+      <c r="B201" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B201" s="1" t="s">
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" s="1" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="s">
+      <c r="B202" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B202" s="1" t="s">
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" s="1" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="s">
+      <c r="B203" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="B203" s="1" t="s">
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" s="1" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="s">
+      <c r="B204" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B204" s="1" t="s">
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" s="1" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="s">
+      <c r="B205" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B205" s="1" t="s">
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" s="1" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="s">
+      <c r="B206" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B206" s="1" t="s">
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" s="1" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="s">
+      <c r="B207" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B207" s="1" t="s">
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" s="1" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="s">
+      <c r="B208" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="B208" s="1" t="s">
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" s="1" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="s">
+      <c r="B209" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B209" s="1" t="s">
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" s="1" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="s">
+      <c r="B210" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B210" s="1" t="s">
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" s="1" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="s">
+      <c r="B211" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B211" s="1" t="s">
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" s="1" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="s">
+      <c r="B212" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B212" s="1" t="s">
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213" s="1" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="s">
+      <c r="B213" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B213" s="1" t="s">
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214" s="1" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="s">
+      <c r="B214" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="B214" s="1" t="s">
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" s="1" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="s">
+      <c r="B215" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B215" s="1" t="s">
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" s="1" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="s">
+      <c r="B216" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B216" s="1" t="s">
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" s="1" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="s">
+      <c r="B217" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B217" s="1" t="s">
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" s="1" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="s">
+      <c r="B218" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B218" s="1" t="s">
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" s="1" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="s">
+      <c r="B219" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B219" s="1" t="s">
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" s="1" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="s">
+      <c r="B220" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B220" s="1" t="s">
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" s="1" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="s">
+      <c r="B221" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B221" s="1" t="s">
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" s="1" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="s">
+      <c r="B222" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B222" s="1" t="s">
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A223" s="1" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="s">
+      <c r="B223" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B223" s="1" t="s">
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" s="1" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="s">
+      <c r="B224" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="B224" s="1" t="s">
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" s="1" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="s">
+      <c r="B225" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B225" s="1" t="s">
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" s="1" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="s">
+      <c r="B226" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B226" s="1" t="s">
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" s="1" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="s">
+      <c r="B227" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B227" s="1" t="s">
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" s="1" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="s">
+      <c r="B228" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B228" s="1" t="s">
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" s="1" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="s">
+      <c r="B229" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="B229" s="1" t="s">
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" s="1" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="s">
+      <c r="B230" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B230" s="1" t="s">
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A231" s="1" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="s">
+      <c r="B231" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B231" s="1" t="s">
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" s="1" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="s">
+      <c r="B232" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B232" s="1" t="s">
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233" s="1" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="s">
+      <c r="B233" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B233" s="1" t="s">
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" s="1" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="s">
+      <c r="B234" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B234" s="1" t="s">
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235" s="1" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="s">
+      <c r="B235" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B235" s="1" t="s">
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" s="1" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="s">
+      <c r="B236" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B236" s="1" t="s">
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" s="1" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="s">
+      <c r="B237" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B237" s="1" t="s">
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" s="1" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="s">
+      <c r="B238" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B238" s="1" t="s">
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239" s="1" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="s">
+      <c r="B239" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="B239" s="1" t="s">
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240" s="1" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="s">
+      <c r="B240" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B240" s="1" t="s">
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="s">
+      <c r="B241" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B241" s="1" t="s">
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" s="1" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="s">
+      <c r="B242" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="B242" s="1" t="s">
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" s="1" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="s">
+      <c r="B243" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="B243" s="1" t="s">
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" s="1" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="s">
+      <c r="B244" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B244" s="1" t="s">
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" s="1" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="s">
+      <c r="B245" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B245" s="1" t="s">
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246" s="1" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="s">
+      <c r="B246" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B246" s="1" t="s">
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" s="1" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="s">
+      <c r="B247" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B247" s="1" t="s">
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" s="1" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="s">
+      <c r="B248" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B248" s="1" t="s">
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" s="1" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="s">
+      <c r="B249" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B249" s="1" t="s">
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A250" s="1" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="s">
+      <c r="B250" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B250" s="1" t="s">
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A251" s="1" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="s">
+      <c r="B251" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B251" s="1" t="s">
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A252" s="1" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="s">
+      <c r="B252" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="B252" s="1" t="s">
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253" s="1" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="s">
+      <c r="B253" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B253" s="1" t="s">
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A254" s="1" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="s">
+      <c r="B254" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="B254" s="1" t="s">
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A255" s="1" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="s">
+      <c r="B255" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="B255" s="1" t="s">
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A256" s="1" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="s">
+      <c r="B256" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B256" s="1" t="s">
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A257" s="1" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="s">
+      <c r="B257" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B257" s="1" t="s">
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A258" s="1" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="s">
+      <c r="B258" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="B258" s="1" t="s">
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A259" s="1" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="s">
+      <c r="B259" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B259" s="1" t="s">
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A260" s="1" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="s">
+      <c r="B260" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="B260" s="1" t="s">
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A261" s="1" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="s">
+      <c r="B261" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B261" s="1" t="s">
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A262" s="1" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="s">
+      <c r="B262" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B262" s="1" t="s">
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A263" s="1" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="s">
+      <c r="B263" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="B263" s="1" t="s">
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A264" s="1" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="s">
+      <c r="B264" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="B264" s="1" t="s">
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A265" s="1" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="s">
+      <c r="B265" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="B265" s="1" t="s">
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A266" s="1" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="s">
+      <c r="B266" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="B266" s="1" t="s">
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A267" s="1" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="s">
+      <c r="B267" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="B267" s="1" t="s">
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A268" s="1" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="s">
+      <c r="B268" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B268" s="1" t="s">
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A269" s="1" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="s">
+      <c r="B269" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="B269" s="1" t="s">
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A270" s="1" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="s">
+      <c r="B270" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="B270" s="1" t="s">
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A271" s="1" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="s">
+      <c r="B271" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="B271" s="1" t="s">
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A272" s="1" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="s">
+      <c r="B272" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="B272" s="1" t="s">
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A273" s="1" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="s">
+      <c r="B273" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="B273" s="1" t="s">
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A274" s="1" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="s">
+      <c r="B274" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="B274" s="1" t="s">
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A275" s="1" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="s">
+      <c r="B275" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="B275" s="1" t="s">
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A276" s="1" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="s">
+      <c r="B276" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="B276" s="1" t="s">
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A277" s="1" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="s">
+      <c r="B277" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="B277" s="1" t="s">
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A278" s="1" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="s">
+      <c r="B278" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="B278" s="1" t="s">
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A279" s="1" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="s">
+      <c r="B279" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="B279" s="1" t="s">
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A280" s="1" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="s">
+      <c r="B280" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="B280" s="1" t="s">
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A281" s="1" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="s">
+      <c r="B281" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="B281" s="1" t="s">
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A282" s="1" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="s">
+      <c r="B282" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="B282" s="1" t="s">
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A283" s="1" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="s">
+      <c r="B283" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="B283" s="1" t="s">
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A284" s="1" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="s">
+      <c r="B284" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="B284" s="1" t="s">
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A285" s="1" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="s">
+      <c r="B285" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="B285" s="1" t="s">
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A286" s="1" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="s">
+      <c r="B286" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="B286" s="1" t="s">
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A287" s="1" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="s">
+      <c r="B287" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="B287" s="1" t="s">
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A288" s="1" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="s">
+      <c r="B288" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="B288" s="1" t="s">
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A289" s="1" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="s">
+      <c r="B289" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="B289" s="1" t="s">
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A290" s="1" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="s">
+      <c r="B290" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="B290" s="1" t="s">
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A291" s="1" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="s">
+      <c r="B291" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="B291" s="1" t="s">
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A292" s="1" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="s">
+      <c r="B292" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="B292" s="1" t="s">
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A293" s="1" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="s">
+      <c r="B293" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="B293" s="1" t="s">
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A294" s="1" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="s">
+      <c r="B294" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="B294" s="1" t="s">
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A295" s="1" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="s">
+      <c r="B295" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="B295" s="1" t="s">
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A296" s="1" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="s">
+      <c r="B296" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="B296" s="1" t="s">
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A297" s="1" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="s">
+      <c r="B297" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="B297" s="1" t="s">
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A298" s="1" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="s">
+      <c r="B298" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="B298" s="1" t="s">
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A299" s="1" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="s">
+      <c r="B299" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="B299" s="1" t="s">
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A300" s="1" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="s">
+      <c r="B300" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="B300" s="1" t="s">
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A301" s="1" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="s">
+      <c r="B301" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="B301" s="1" t="s">
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A302" s="1" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="s">
+      <c r="B302" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="B302" s="1" t="s">
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A303" s="1" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="s">
+      <c r="B303" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="B303" s="1" t="s">
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A304" s="1" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="s">
+      <c r="B304" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="B304" s="1" t="s">
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A305" s="1" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="s">
+      <c r="B305" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="B305" s="1" t="s">
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A306" s="1" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="s">
+      <c r="B306" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="B306" s="1" t="s">
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A307" s="1" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="s">
+      <c r="B307" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="B307" s="1" t="s">
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A308" s="1" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="s">
+      <c r="B308" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="B308" s="1" t="s">
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A309" s="1" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="s">
+      <c r="B309" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="B309" s="1" t="s">
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A310" s="1" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="s">
+      <c r="B310" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="B310" s="1" t="s">
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A311" s="1" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="s">
+      <c r="B311" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="B311" s="1" t="s">
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A312" s="1" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="s">
+      <c r="B312" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="B312" s="1" t="s">
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A313" s="1" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="s">
+      <c r="B313" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="B313" s="1" t="s">
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A314" s="1" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="s">
+      <c r="B314" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="B314" s="1" t="s">
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A315" s="1" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="s">
+      <c r="B315" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="B315" s="1" t="s">
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A316" s="1" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="s">
+      <c r="B316" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="B316" s="1" t="s">
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A317" s="1" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="317">
-      <c r="A317" s="1" t="s">
+      <c r="B317" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B317" s="1" t="s">
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A318" s="1" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="318">
-      <c r="A318" s="1" t="s">
+      <c r="B318" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="B318" s="1" t="s">
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A319" s="1" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="1" t="s">
+      <c r="B319" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="B319" s="1" t="s">
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A320" s="1" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="1" t="s">
+      <c r="B320" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="B320" s="1" t="s">
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A321" s="1" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="321">
-      <c r="A321" s="1" t="s">
+      <c r="B321" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="B321" s="1" t="s">
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A322" s="1" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="1" t="s">
+      <c r="B322" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="B322" s="1" t="s">
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A323" s="1" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="1" t="s">
+      <c r="B323" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="B323" s="1" t="s">
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A324" s="1" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="324">
-      <c r="A324" s="1" t="s">
+      <c r="B324" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="B324" s="1" t="s">
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A325" s="1" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="1" t="s">
+      <c r="B325" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="B325" s="1" t="s">
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A326" s="1" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="s">
+      <c r="B326" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="B326" s="1" t="s">
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A327" s="1" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="s">
+      <c r="B327" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="B327" s="1" t="s">
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A328" s="1" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="s">
+      <c r="B328" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="B328" s="1" t="s">
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A329" s="1" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="1" t="s">
+      <c r="B329" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="B329" s="1" t="s">
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A330" s="1" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="1" t="s">
+      <c r="B330" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="B330" s="1" t="s">
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A331" s="1" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="1" t="s">
+      <c r="B331" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="B331" s="1" t="s">
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A332" s="1" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="1" t="s">
+      <c r="B332" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="B332" s="1" t="s">
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A333" s="1" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="1" t="s">
+      <c r="B333" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="B333" s="1" t="s">
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A334" s="1" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="1" t="s">
+      <c r="B334" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B334" s="1" t="s">
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A335" s="1" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="335">
-      <c r="A335" s="1" t="s">
+      <c r="B335" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="B335" s="1" t="s">
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A336" s="1" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="s">
+      <c r="B336" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="B336" s="1" t="s">
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A337" s="1" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="s">
+      <c r="B337" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="B337" s="1" t="s">
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A338" s="1" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="s">
+      <c r="B338" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="B338" s="1" t="s">
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A339" s="1" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="s">
+      <c r="B339" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="B339" s="1" t="s">
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A340" s="1" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="s">
+      <c r="B340" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="B340" s="1" t="s">
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A341" s="1" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="s">
+      <c r="B341" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="B341" s="1" t="s">
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A342" s="1" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="s">
+      <c r="B342" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="B342" s="1" t="s">
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A343" s="1" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="s">
+      <c r="B343" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="B343" s="1" t="s">
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A344" s="1" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="s">
+      <c r="B344" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="B344" s="1" t="s">
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A345" s="1" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="s">
+      <c r="B345" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="B345" s="1" t="s">
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A346" s="1" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="s">
+      <c r="B346" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="B346" s="1" t="s">
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A347" s="1" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="s">
+      <c r="B347" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="B347" s="1" t="s">
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A348" s="1" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="s">
+      <c r="B348" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="B348" s="1" t="s">
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A349" s="1" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="s">
+      <c r="B349" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="B349" s="1" t="s">
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A350" s="1" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="s">
+      <c r="B350" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="B350" s="1" t="s">
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A351" s="1" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="s">
+      <c r="B351" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="B351" s="1" t="s">
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A352" s="1" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="s">
+      <c r="B352" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="B352" s="1" t="s">
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A353" s="1" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="s">
+      <c r="B353" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="B353" s="1" t="s">
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A354" s="1" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="s">
+      <c r="B354" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="B354" s="1" t="s">
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A355" s="1" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="s">
+      <c r="B355" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="B355" s="1" t="s">
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A356" s="1" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="s">
+      <c r="B356" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="B356" s="1" t="s">
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A357" s="1" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="s">
+      <c r="B357" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="B357" s="1" t="s">
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A358" s="1" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="s">
+      <c r="B358" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="B358" s="1" t="s">
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A359" s="1" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="s">
+      <c r="B359" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="B359" s="1" t="s">
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A360" s="1" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="s">
+      <c r="B360" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="B360" s="1" t="s">
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A361" s="1" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="s">
+      <c r="B361" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="B361" s="1" t="s">
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A362" s="1" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="s">
+      <c r="B362" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="B362" s="1" t="s">
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A363" s="1" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="s">
+      <c r="B363" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="B363" s="1" t="s">
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A364" s="1" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="s">
+      <c r="B364" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="B364" s="1" t="s">
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A365" s="1" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="s">
+      <c r="B365" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="B365" s="1" t="s">
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A366" s="1" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="s">
+      <c r="B366" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="B366" s="1" t="s">
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A367" s="1" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="s">
+      <c r="B367" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="B367" s="1" t="s">
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A368" s="1" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="s">
+      <c r="B368" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="B368" s="1" t="s">
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A369" s="1" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="s">
+      <c r="B369" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="B369" s="1" t="s">
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A370" s="1" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="s">
+      <c r="B370" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="B370" s="1" t="s">
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A371" s="1" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="s">
+      <c r="B371" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="B371" s="1" t="s">
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A372" s="1" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="s">
+      <c r="B372" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="B372" s="1" t="s">
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A373" s="1" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="s">
+      <c r="B373" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="B373" s="1" t="s">
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A374" s="1" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="s">
+      <c r="B374" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="B374" s="1" t="s">
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A375" s="1" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="s">
+      <c r="B375" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="B375" s="1" t="s">
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A376" s="1" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="s">
+      <c r="B376" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="B376" s="1" t="s">
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A377" s="1" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="s">
+      <c r="B377" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="B377" s="1" t="s">
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A378" s="1" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="s">
+      <c r="B378" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="B378" s="1" t="s">
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A379" s="1" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="s">
+      <c r="B379" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="B379" s="1" t="s">
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A380" s="1" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="s">
+      <c r="B380" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="B380" s="1" t="s">
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A381" s="1" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="s">
+      <c r="B381" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="B381" s="1" t="s">
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A382" s="1" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="s">
+      <c r="B382" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="B382" s="1" t="s">
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A383" s="1" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="383">
-      <c r="A383" s="1" t="s">
+      <c r="B383" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="B383" s="1" t="s">
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A384" s="1" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="s">
+      <c r="B384" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="B384" s="1" t="s">
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A385" s="1" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="385">
-      <c r="A385" s="1" t="s">
+      <c r="B385" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="B385" s="1" t="s">
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A386" s="1" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="386">
-      <c r="A386" s="1" t="s">
+      <c r="B386" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="B386" s="1" t="s">
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A387" s="1" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="387">
-      <c r="A387" s="1" t="s">
+      <c r="B387" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="B387" s="1" t="s">
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A388" s="1" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="388">
-      <c r="A388" s="1" t="s">
+      <c r="B388" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="B388" s="1" t="s">
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A389" s="1" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="389">
-      <c r="A389" s="1" t="s">
+      <c r="B389" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="B389" s="1" t="s">
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A390" s="1" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="390">
-      <c r="A390" s="1" t="s">
+      <c r="B390" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="B390" s="1" t="s">
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A391" s="1" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="391">
-      <c r="A391" s="1" t="s">
+      <c r="B391" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="B391" s="1" t="s">
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A392" s="1" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="392">
-      <c r="A392" s="1" t="s">
+      <c r="B392" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="B392" s="1" t="s">
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A393" s="1" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="393">
-      <c r="A393" s="1" t="s">
+      <c r="B393" s="1" t="s">
         <v>784</v>
       </c>
-      <c r="B393" s="1" t="s">
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A394" s="1" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="394">
-      <c r="A394" s="1" t="s">
+      <c r="B394" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="B394" s="1" t="s">
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A395" s="1" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="395">
-      <c r="A395" s="1" t="s">
+      <c r="B395" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="B395" s="1" t="s">
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A396" s="1" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="396">
-      <c r="A396" s="1" t="s">
+      <c r="B396" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="B396" s="1" t="s">
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A397" s="1" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="397">
-      <c r="A397" s="1" t="s">
+      <c r="B397" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="B397" s="1" t="s">
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A398" s="1" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="398">
-      <c r="A398" s="1" t="s">
+      <c r="B398" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="B398" s="1" t="s">
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A399" s="1" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="399">
-      <c r="A399" s="1" t="s">
+      <c r="B399" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="B399" s="1" t="s">
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A400" s="1" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="400">
-      <c r="A400" s="1" t="s">
+      <c r="B400" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="B400" s="1" t="s">
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A401" s="1" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="401">
-      <c r="A401" s="1" t="s">
+      <c r="B401" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="B401" s="1" t="s">
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A402" s="1" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="402">
-      <c r="A402" s="1" t="s">
+      <c r="B402" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="B402" s="1" t="s">
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A403" s="1" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="403">
-      <c r="A403" s="1" t="s">
+      <c r="B403" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="B403" s="1" t="s">
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A404" s="1" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="404">
-      <c r="A404" s="1" t="s">
+      <c r="B404" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="B404" s="1" t="s">
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A405" s="1" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="405">
-      <c r="A405" s="1" t="s">
+      <c r="B405" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="B405" s="1" t="s">
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A406" s="1" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="406">
-      <c r="A406" s="1" t="s">
+      <c r="B406" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="B406" s="1" t="s">
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A407" s="1" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="407">
-      <c r="A407" s="1" t="s">
+      <c r="B407" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="B407" s="1" t="s">
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A408" s="1" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="408">
-      <c r="A408" s="1" t="s">
+      <c r="B408" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="B408" s="1" t="s">
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A409" s="1" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="409">
-      <c r="A409" s="1" t="s">
+      <c r="B409" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="B409" s="1" t="s">
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A410" s="1" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="410">
-      <c r="A410" s="1" t="s">
+      <c r="B410" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="B410" s="1" t="s">
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A411" s="1" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="411">
-      <c r="A411" s="1" t="s">
+      <c r="B411" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="B411" s="1" t="s">
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A412" s="1" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="412">
-      <c r="A412" s="1" t="s">
+      <c r="B412" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="B412" s="1" t="s">
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A413" s="1" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="413">
-      <c r="A413" s="1" t="s">
+      <c r="B413" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="B413" s="1" t="s">
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A414" s="1" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="414">
-      <c r="A414" s="1" t="s">
+      <c r="B414" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="B414" s="1" t="s">
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A415" s="1" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="415">
-      <c r="A415" s="1" t="s">
+      <c r="B415" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="B415" s="1" t="s">
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A416" s="1" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="416">
-      <c r="A416" s="1" t="s">
+      <c r="B416" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="B416" s="1" t="s">
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A417" s="1" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="417">
-      <c r="A417" s="1" t="s">
+      <c r="B417" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="B417" s="1" t="s">
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A418" s="1" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="418">
-      <c r="A418" s="1" t="s">
+      <c r="B418" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="B418" s="1" t="s">
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A419" s="1" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="419">
-      <c r="A419" s="1" t="s">
+      <c r="B419" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="B419" s="1" t="s">
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A420" s="1" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="420">
-      <c r="A420" s="1" t="s">
+      <c r="B420" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="B420" s="1" t="s">
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A421" s="1" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="421">
-      <c r="A421" s="1" t="s">
+      <c r="B421" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="B421" s="1" t="s">
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A422" s="1" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="422">
-      <c r="A422" s="1" t="s">
+      <c r="B422" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="B422" s="1" t="s">
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A423" s="1" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="423">
-      <c r="A423" s="1" t="s">
+      <c r="B423" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="B423" s="1" t="s">
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A424" s="1" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="424">
-      <c r="A424" s="1" t="s">
+      <c r="B424" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="B424" s="1" t="s">
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A425" s="1" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="425">
-      <c r="A425" s="1" t="s">
+      <c r="B425" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="B425" s="1" t="s">
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A426" s="1" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="426">
-      <c r="A426" s="1" t="s">
+      <c r="B426" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="B426" s="1" t="s">
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A427" s="1" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="427">
-      <c r="A427" s="1" t="s">
+      <c r="B427" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="B427" s="1" t="s">
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A428" s="1" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="428">
-      <c r="A428" s="1" t="s">
+      <c r="B428" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="B428" s="1" t="s">
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A429" s="1" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="429">
-      <c r="A429" s="1" t="s">
+      <c r="B429" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="B429" s="1" t="s">
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A430" s="1" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="430">
-      <c r="A430" s="1" t="s">
+      <c r="B430" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="B430" s="1" t="s">
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A431" s="1" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="431">
-      <c r="A431" s="1" t="s">
+      <c r="B431" s="1" t="s">
         <v>860</v>
       </c>
-      <c r="B431" s="1" t="s">
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A432" s="1" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="432">
-      <c r="A432" s="1" t="s">
+      <c r="B432" s="1" t="s">
         <v>862</v>
       </c>
-      <c r="B432" s="1" t="s">
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A433" s="1" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="433">
-      <c r="A433" s="1" t="s">
+      <c r="B433" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="B433" s="1" t="s">
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A434" s="1" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="434">
-      <c r="A434" s="1" t="s">
+      <c r="B434" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="B434" s="1" t="s">
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A435" s="1" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="435">
-      <c r="A435" s="1" t="s">
+      <c r="B435" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="B435" s="1" t="s">
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A436" s="1" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row r="436">
-      <c r="A436" s="1" t="s">
+      <c r="B436" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="B436" s="1" t="s">
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A437" s="1" t="s">
         <v>871</v>
       </c>
-    </row>
-    <row r="437">
-      <c r="A437" s="1" t="s">
+      <c r="B437" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="B437" s="1" t="s">
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A438" s="1" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row r="438">
-      <c r="A438" s="1" t="s">
+      <c r="B438" s="1" t="s">
         <v>874</v>
       </c>
-      <c r="B438" s="1" t="s">
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A439" s="1" t="s">
         <v>875</v>
       </c>
-    </row>
-    <row r="439">
-      <c r="A439" s="1" t="s">
+      <c r="B439" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="B439" s="1" t="s">
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A440" s="1" t="s">
         <v>877</v>
       </c>
-    </row>
-    <row r="440">
-      <c r="A440" s="1" t="s">
+      <c r="B440" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="B440" s="1" t="s">
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A441" s="1" t="s">
         <v>879</v>
       </c>
-    </row>
-    <row r="441">
-      <c r="A441" s="1" t="s">
+      <c r="B441" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="B441" s="1" t="s">
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A442" s="1" t="s">
         <v>881</v>
       </c>
-    </row>
-    <row r="442">
-      <c r="A442" s="1" t="s">
+      <c r="B442" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="B442" s="1" t="s">
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A443" s="1" t="s">
         <v>883</v>
       </c>
-    </row>
-    <row r="443">
-      <c r="A443" s="1" t="s">
+      <c r="B443" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="B443" s="1" t="s">
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A444" s="1" t="s">
         <v>885</v>
       </c>
-    </row>
-    <row r="444">
-      <c r="A444" s="1" t="s">
+      <c r="B444" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="B444" s="1" t="s">
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A445" s="1" t="s">
         <v>887</v>
       </c>
-    </row>
-    <row r="445">
-      <c r="A445" s="1" t="s">
+      <c r="B445" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="B445" s="1" t="s">
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A446" s="1" t="s">
         <v>889</v>
       </c>
-    </row>
-    <row r="446">
-      <c r="A446" s="1" t="s">
+      <c r="B446" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="B446" s="1" t="s">
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A447" s="1" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="447">
-      <c r="A447" s="1" t="s">
+      <c r="B447" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="B447" s="1" t="s">
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A448" s="1" t="s">
         <v>893</v>
       </c>
-    </row>
-    <row r="448">
-      <c r="A448" s="1" t="s">
+      <c r="B448" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="B448" s="1" t="s">
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A449" s="1" t="s">
         <v>895</v>
       </c>
-    </row>
-    <row r="449">
-      <c r="A449" s="1" t="s">
+      <c r="B449" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="B449" s="1" t="s">
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A450" s="1" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row r="450">
-      <c r="A450" s="1" t="s">
+      <c r="B450" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="B450" s="1" t="s">
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A451" s="1" t="s">
         <v>899</v>
       </c>
-    </row>
-    <row r="451">
-      <c r="A451" s="1" t="s">
+      <c r="B451" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="B451" s="1" t="s">
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A452" s="1" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="452">
-      <c r="A452" s="1" t="s">
+      <c r="B452" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="B452" s="1" t="s">
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A453" s="1" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="453">
-      <c r="A453" s="1" t="s">
+      <c r="B453" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="B453" s="1" t="s">
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A454" s="1" t="s">
         <v>905</v>
       </c>
-    </row>
-    <row r="454">
-      <c r="A454" s="1" t="s">
+      <c r="B454" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="B454" s="1" t="s">
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A455" s="1" t="s">
         <v>907</v>
       </c>
-    </row>
-    <row r="455">
-      <c r="A455" s="1" t="s">
+      <c r="B455" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="B455" s="1" t="s">
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A456" s="1" t="s">
         <v>909</v>
       </c>
-    </row>
-    <row r="456">
-      <c r="A456" s="1" t="s">
+      <c r="B456" s="1" t="s">
         <v>910</v>
       </c>
-      <c r="B456" s="1" t="s">
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A457" s="1" t="s">
         <v>911</v>
       </c>
-    </row>
-    <row r="457">
-      <c r="A457" s="1" t="s">
+      <c r="B457" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="B457" s="1" t="s">
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A458" s="1" t="s">
         <v>913</v>
       </c>
-    </row>
-    <row r="458">
-      <c r="A458" s="1" t="s">
+      <c r="B458" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="B458" s="1" t="s">
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A459" s="1" t="s">
         <v>915</v>
       </c>
-    </row>
-    <row r="459">
-      <c r="A459" s="1" t="s">
+      <c r="B459" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="B459" s="1" t="s">
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A460" s="1" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="460">
-      <c r="A460" s="1" t="s">
+      <c r="B460" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="B460" s="1" t="s">
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A461" s="1" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="461">
-      <c r="A461" s="1" t="s">
+      <c r="B461" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="B461" s="1" t="s">
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A462" s="1" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="462">
-      <c r="A462" s="1" t="s">
+      <c r="B462" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="B462" s="1" t="s">
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A463" s="1" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="463">
-      <c r="A463" s="1" t="s">
+      <c r="B463" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="B463" s="1" t="s">
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A464" s="1" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="464">
-      <c r="A464" s="1" t="s">
+      <c r="B464" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="B464" s="1" t="s">
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A465" s="1" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="465">
-      <c r="A465" s="1" t="s">
+      <c r="B465" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="B465" s="1" t="s">
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A466" s="1" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="466">
-      <c r="A466" s="1" t="s">
+      <c r="B466" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="B466" s="1" t="s">
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A467" s="1" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="467">
-      <c r="A467" s="1" t="s">
+      <c r="B467" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="B467" s="1" t="s">
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A468" s="1" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="468">
-      <c r="A468" s="1" t="s">
+      <c r="B468" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="B468" s="1" t="s">
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A469" s="1" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="469">
-      <c r="A469" s="1" t="s">
+      <c r="B469" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="B469" s="1" t="s">
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A470" s="1" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="470">
-      <c r="A470" s="1" t="s">
+      <c r="B470" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="B470" s="1" t="s">
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A471" s="1" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="471">
-      <c r="A471" s="1" t="s">
+      <c r="B471" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="B471" s="1" t="s">
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A472" s="1" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="472">
-      <c r="A472" s="1" t="s">
+      <c r="B472" s="1" t="s">
         <v>942</v>
       </c>
-      <c r="B472" s="1" t="s">
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A473" s="1" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="473">
-      <c r="A473" s="1" t="s">
+      <c r="B473" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A474" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="B473" s="1" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" s="1" t="s">
+      <c r="B474" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A475" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="B474" s="1" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" s="1" t="s">
+      <c r="B475" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A476" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="B475" s="1" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" s="1" t="s">
+      <c r="B476" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A477" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="B476" s="1" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" s="1" t="s">
+      <c r="B477" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A478" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="B477" s="1" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" s="1" t="s">
+      <c r="B478" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="B478" s="1" t="s">
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A479" s="1" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="479">
-      <c r="A479" s="1" t="s">
+      <c r="B479" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="B479" s="1" t="s">
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A480" s="1" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="480">
-      <c r="A480" s="1" t="s">
+      <c r="B480" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="B480" s="1" t="s">
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A481" s="1" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="481">
-      <c r="A481" s="1" t="s">
+      <c r="B481" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="B481" s="1" t="s">
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A482" s="1" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="482">
-      <c r="A482" s="1" t="s">
+      <c r="B482" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="B482" s="1" t="s">
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A483" s="1" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="483">
-      <c r="A483" s="1" t="s">
+      <c r="B483" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="B483" s="1" t="s">
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A484" s="1" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="484">
-      <c r="A484" s="1" t="s">
+      <c r="B484" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="B484" s="1" t="s">
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A485" s="1" t="s">
         <v>962</v>
       </c>
-    </row>
-    <row r="485">
-      <c r="A485" s="1" t="s">
+      <c r="B485" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="B485" s="1" t="s">
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A486" s="1" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="486">
-      <c r="A486" s="1" t="s">
+      <c r="B486" s="1" t="s">
         <v>965</v>
       </c>
-      <c r="B486" s="1" t="s">
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A487" s="1" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="487">
-      <c r="A487" s="1" t="s">
+      <c r="B487" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="B487" s="1" t="s">
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A488" s="1" t="s">
         <v>968</v>
       </c>
-    </row>
-    <row r="488">
-      <c r="A488" s="1" t="s">
+      <c r="B488" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="B488" s="1" t="s">
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A489" s="1" t="s">
         <v>970</v>
       </c>
-    </row>
-    <row r="489">
-      <c r="A489" s="1" t="s">
+      <c r="B489" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="B489" s="1" t="s">
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A490" s="1" t="s">
         <v>972</v>
       </c>
-    </row>
-    <row r="490">
-      <c r="A490" s="1" t="s">
+      <c r="B490" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="B490" s="1" t="s">
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A491" s="1" t="s">
         <v>974</v>
       </c>
-    </row>
-    <row r="491">
-      <c r="A491" s="1" t="s">
+      <c r="B491" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="B491" s="1" t="s">
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A492" s="1" t="s">
         <v>976</v>
       </c>
-    </row>
-    <row r="492">
-      <c r="A492" s="1" t="s">
+      <c r="B492" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="B492" s="1" t="s">
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A493" s="1" t="s">
         <v>978</v>
       </c>
-    </row>
-    <row r="493">
-      <c r="A493" s="1" t="s">
+      <c r="B493" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="B493" s="1" t="s">
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A494" s="1" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="494">
-      <c r="A494" s="1" t="s">
+      <c r="B494" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="B494" s="1" t="s">
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A495" s="1" t="s">
         <v>982</v>
       </c>
-    </row>
-    <row r="495">
-      <c r="A495" s="1" t="s">
+      <c r="B495" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="B495" s="1" t="s">
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A496" s="1" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="496">
-      <c r="A496" s="1" t="s">
+      <c r="B496" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="B496" s="1" t="s">
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A497" s="1" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="497">
-      <c r="A497" s="1" t="s">
+      <c r="B497" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="B497" s="1" t="s">
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A498" s="1" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="498">
-      <c r="A498" s="1" t="s">
+      <c r="B498" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="B498" s="1" t="s">
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A499" s="1" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="499">
-      <c r="A499" s="1" t="s">
+      <c r="B499" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="B499" s="1" t="s">
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A500" s="1" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="500">
-      <c r="A500" s="1" t="s">
+      <c r="B500" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="B500" s="1" t="s">
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A501" s="1" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="501">
-      <c r="A501" s="1" t="s">
+      <c r="B501" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="B501" s="1" t="s">
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A502" s="1" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="502">
-      <c r="A502" s="1" t="s">
+      <c r="B502" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="B502" s="1" t="s">
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A503" s="1" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="503">
-      <c r="A503" s="1" t="s">
+      <c r="B503" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="B503" s="1" t="s">
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A504" s="1" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="504">
-      <c r="A504" s="1" t="s">
+      <c r="B504" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="B504" s="1" t="s">
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A505" s="1" t="s">
         <v>1002</v>
       </c>
-    </row>
-    <row r="505">
-      <c r="A505" s="1" t="s">
+      <c r="B505" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="B505" s="1" t="s">
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A506" s="1" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row r="506">
-      <c r="A506" s="1" t="s">
+      <c r="B506" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="B506" s="1" t="s">
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A507" s="1" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="507">
-      <c r="A507" s="1" t="s">
+      <c r="B507" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="B507" s="1" t="s">
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A508" s="1" t="s">
         <v>1008</v>
       </c>
-    </row>
-    <row r="508">
-      <c r="A508" s="1" t="s">
+      <c r="B508" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="B508" s="1" t="s">
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A509" s="1" t="s">
         <v>1010</v>
       </c>
-    </row>
-    <row r="509">
-      <c r="A509" s="1" t="s">
+      <c r="B509" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="B509" s="1" t="s">
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A510" s="1" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="510">
-      <c r="A510" s="1" t="s">
+      <c r="B510" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="B510" s="1" t="s">
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A511" s="1" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="511">
-      <c r="A511" s="1" t="s">
+      <c r="B511" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="B511" s="1" t="s">
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A512" s="1" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="512">
-      <c r="A512" s="1" t="s">
+      <c r="B512" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="B512" s="1" t="s">
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A513" s="1" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="513">
-      <c r="A513" s="1" t="s">
+      <c r="B513" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B513" s="1" t="s">
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A514" s="1" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="514">
-      <c r="A514" s="1" t="s">
+      <c r="B514" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="B514" s="1" t="s">
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A515" s="1" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="515">
-      <c r="A515" s="1" t="s">
+      <c r="B515" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="B515" s="1" t="s">
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A516" s="1" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="516">
-      <c r="A516" s="1" t="s">
+      <c r="B516" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="B516" s="1" t="s">
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A517" s="1" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="517">
-      <c r="A517" s="1" t="s">
+      <c r="B517" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="B517" s="1" t="s">
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A518" s="1" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="518">
-      <c r="A518" s="1" t="s">
+      <c r="B518" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="B518" s="1" t="s">
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A519" s="1" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="519">
-      <c r="A519" s="1" t="s">
+      <c r="B519" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="B519" s="1" t="s">
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A520" s="1" t="s">
         <v>1032</v>
       </c>
-    </row>
-    <row r="520">
-      <c r="A520" s="1" t="s">
+      <c r="B520" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="B520" s="1" t="s">
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A521" s="1" t="s">
         <v>1034</v>
       </c>
-    </row>
-    <row r="521">
-      <c r="A521" s="1" t="s">
+      <c r="B521" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="B521" s="1" t="s">
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A522" s="1" t="s">
         <v>1036</v>
       </c>
-    </row>
-    <row r="522">
-      <c r="A522" s="1" t="s">
+      <c r="B522" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="B522" s="1" t="s">
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A523" s="1" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="523">
-      <c r="A523" s="1" t="s">
+      <c r="B523" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="B523" s="1" t="s">
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A524" s="1" t="s">
         <v>1040</v>
       </c>
-    </row>
-    <row r="524">
-      <c r="A524" s="1" t="s">
+      <c r="B524" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="B524" s="1" t="s">
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A525" s="1" t="s">
         <v>1042</v>
       </c>
-    </row>
-    <row r="525">
-      <c r="A525" s="1" t="s">
+      <c r="B525" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="B525" s="1" t="s">
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A526" s="1" t="s">
         <v>1044</v>
       </c>
-    </row>
-    <row r="526">
-      <c r="A526" s="1" t="s">
+      <c r="B526" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="B526" s="1" t="s">
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A527" s="1" t="s">
         <v>1046</v>
       </c>
-    </row>
-    <row r="527">
-      <c r="A527" s="1" t="s">
+      <c r="B527" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="B527" s="1" t="s">
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A528" s="1" t="s">
         <v>1048</v>
       </c>
-    </row>
-    <row r="528">
-      <c r="A528" s="1" t="s">
+      <c r="B528" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="B528" s="1" t="s">
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A529" s="1" t="s">
         <v>1050</v>
       </c>
-    </row>
-    <row r="529">
-      <c r="A529" s="1" t="s">
+      <c r="B529" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="B529" s="1" t="s">
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A530" s="1" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="530">
-      <c r="A530" s="1" t="s">
+      <c r="B530" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="B530" s="1" t="s">
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A531" s="1" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="531">
-      <c r="A531" s="1" t="s">
+      <c r="B531" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="B531" s="1" t="s">
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A532" s="1" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="532">
-      <c r="A532" s="1" t="s">
+      <c r="B532" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="B532" s="1" t="s">
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A533" s="1" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="533">
-      <c r="A533" s="1" t="s">
+      <c r="B533" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="B533" s="1" t="s">
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A534" s="1" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="534">
-      <c r="A534" s="1" t="s">
+      <c r="B534" s="1" t="s">
         <v>1061</v>
       </c>
-      <c r="B534" s="1" t="s">
-        <v>1062</v>
-      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>